--- a/tabela_IC_Enzo_adaptada - Copia.xlsx
+++ b/tabela_IC_Enzo_adaptada - Copia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wander\Documents\GitHub\fundaIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wande\OneDrive\Documentos\GitHub\fundaIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC73C6F2-1C7B-4A90-8B51-EE26F5CBBADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EA3BD3-59F2-43A7-A456-0F60C5884738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="53">
   <si>
     <t>P01</t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t>diâmetro de estacas (m)</t>
+  </si>
+  <si>
+    <t>hx (m)</t>
+  </si>
+  <si>
+    <t>hy (m)</t>
   </si>
 </sst>
 </file>
@@ -297,7 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -311,7 +317,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -329,6 +334,12 @@
     </xf>
     <xf numFmtId="43" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -636,57 +647,63 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.5703125" style="2" customWidth="1"/>
-    <col min="4" max="9" width="13.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.54296875" style="2" customWidth="1"/>
+    <col min="4" max="11" width="13.54296875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>43</v>
       </c>
       <c r="H1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0.2</v>
+      <c r="B2" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.4</v>
       </c>
       <c r="D2" s="1">
         <v>10</v>
@@ -694,28 +711,34 @@
       <c r="E2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>2.9</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>25.254999999999999</v>
       </c>
-      <c r="H2" s="8">
-        <v>6</v>
-      </c>
-      <c r="I2" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="H2" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J2" s="7">
+        <v>4</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0.2</v>
+      <c r="B3" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.4</v>
       </c>
       <c r="D3" s="1">
         <v>12</v>
@@ -723,28 +746,34 @@
       <c r="E3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>7.9850000000000003</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>25.105</v>
       </c>
-      <c r="H3" s="8">
-        <v>6</v>
-      </c>
-      <c r="I3" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="H3" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J3" s="7">
+        <v>4</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0.2</v>
+      <c r="B4" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.4</v>
       </c>
       <c r="D4" s="1">
         <v>30</v>
@@ -752,28 +781,34 @@
       <c r="E4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>13.875</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>25.515000000000001</v>
       </c>
-      <c r="H4" s="8">
-        <v>6</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="H4" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J4" s="7">
+        <v>4</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0.2</v>
+      <c r="B5" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.4</v>
       </c>
       <c r="D5" s="1">
         <v>35</v>
@@ -781,86 +816,104 @@
       <c r="E5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>24.85</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>25.105</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J5" s="7">
+        <v>4</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="2">
+        <v>24.85</v>
+      </c>
+      <c r="G6" s="2">
+        <v>25.254999999999999</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J6" s="7">
+        <v>4</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>45</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>24.98</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J7" s="7">
+        <v>4</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>45</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6">
-        <v>24.85</v>
-      </c>
-      <c r="G6">
-        <v>25.254999999999999</v>
-      </c>
-      <c r="H6" s="8">
-        <v>6</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>45</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>24.98</v>
-      </c>
-      <c r="H7" s="8">
-        <v>6</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.2</v>
+      <c r="B8" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.4</v>
       </c>
       <c r="D8" s="1">
         <v>50</v>
@@ -868,28 +921,34 @@
       <c r="E8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>27.75</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>24.98</v>
       </c>
-      <c r="H8" s="8">
-        <v>6</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="H8" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J8" s="7">
+        <v>4</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="7">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0.2</v>
+      <c r="B9" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.4</v>
       </c>
       <c r="D9" s="1">
         <v>12</v>
@@ -897,28 +956,34 @@
       <c r="E9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>8.125</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>19.59</v>
       </c>
-      <c r="H9" s="8">
-        <v>6</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="H9" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J9" s="7">
+        <v>4</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="7">
-        <v>1</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0.2</v>
+      <c r="B10" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.4</v>
       </c>
       <c r="D10" s="1">
         <v>32</v>
@@ -926,28 +991,34 @@
       <c r="E10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>19.765000000000001</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>19.59</v>
       </c>
-      <c r="H10" s="8">
-        <v>6</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="H10" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J10" s="7">
+        <v>4</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="7">
-        <v>1</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0.2</v>
+      <c r="B11" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.4</v>
       </c>
       <c r="D11" s="1">
         <v>90</v>
@@ -955,28 +1026,34 @@
       <c r="E11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>0</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>18.065000000000001</v>
       </c>
-      <c r="H11" s="8">
-        <v>6</v>
-      </c>
-      <c r="I11" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="H11" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J11" s="7">
+        <v>4</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7">
-        <v>1</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0.2</v>
+      <c r="B12" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.4</v>
       </c>
       <c r="D12" s="1">
         <v>10</v>
@@ -984,28 +1061,34 @@
       <c r="E12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>2.3050000000000002</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>18.59</v>
       </c>
-      <c r="H12" s="8">
-        <v>6</v>
-      </c>
-      <c r="I12" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="H12" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J12" s="7">
+        <v>4</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="7">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0.2</v>
+      <c r="B13" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.4</v>
       </c>
       <c r="D13" s="1">
         <v>34</v>
@@ -1013,28 +1096,34 @@
       <c r="E13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>5.2050000000000001</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>17.59</v>
       </c>
-      <c r="H13" s="8">
-        <v>6</v>
-      </c>
-      <c r="I13" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="H13" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J13" s="7">
+        <v>4</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="7">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0.2</v>
+      <c r="B14" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.4</v>
       </c>
       <c r="D14" s="1">
         <v>23</v>
@@ -1042,28 +1131,34 @@
       <c r="E14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>13.875</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>18.565000000000001</v>
       </c>
-      <c r="H14" s="8">
-        <v>6</v>
-      </c>
-      <c r="I14" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="H14" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J14" s="7">
+        <v>4</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="7">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0.2</v>
+      <c r="B15" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.4</v>
       </c>
       <c r="D15" s="1">
         <v>12</v>
@@ -1071,28 +1166,34 @@
       <c r="E15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>19.625</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <v>17.59</v>
       </c>
-      <c r="H15" s="8">
-        <v>6</v>
-      </c>
-      <c r="I15" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="H15" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J15" s="7">
+        <v>4</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="7">
-        <v>1</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0.2</v>
+      <c r="B16" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.4</v>
       </c>
       <c r="D16" s="1">
         <v>17</v>
@@ -1100,28 +1201,34 @@
       <c r="E16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>25.445</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <v>18.59</v>
       </c>
-      <c r="H16" s="8">
-        <v>6</v>
-      </c>
-      <c r="I16" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="H16" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J16" s="7">
+        <v>4</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="7">
-        <v>1</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0.2</v>
+      <c r="B17" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.4</v>
       </c>
       <c r="D17" s="4">
         <v>43</v>
@@ -1129,28 +1236,34 @@
       <c r="E17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>27.75</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="2">
         <v>18.065000000000001</v>
       </c>
-      <c r="H17" s="8">
-        <v>6</v>
-      </c>
-      <c r="I17" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="H17" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J17" s="7">
+        <v>4</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="7">
-        <v>1</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0.2</v>
+      <c r="B18" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.4</v>
       </c>
       <c r="D18" s="1">
         <v>67</v>
@@ -1158,28 +1271,34 @@
       <c r="E18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>9.4</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
         <v>16.395</v>
       </c>
-      <c r="H18" s="8">
-        <v>6</v>
-      </c>
-      <c r="I18" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="H18" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J18" s="7">
+        <v>4</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="7">
-        <v>1</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0.2</v>
+      <c r="B19" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.4</v>
       </c>
       <c r="D19" s="1">
         <v>90</v>
@@ -1187,28 +1306,34 @@
       <c r="E19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>12.08</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
         <v>16.395</v>
       </c>
-      <c r="H19" s="8">
-        <v>6</v>
-      </c>
-      <c r="I19" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="H19" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J19" s="7">
+        <v>4</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="7">
-        <v>1</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0.2</v>
+      <c r="B20" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.4</v>
       </c>
       <c r="D20" s="1">
         <v>15</v>
@@ -1216,27 +1341,33 @@
       <c r="E20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>15.540000000000001</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="2">
         <v>14.552999999999999</v>
       </c>
-      <c r="H20" s="8">
-        <v>6</v>
-      </c>
-      <c r="I20" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="H20" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J20" s="7">
+        <v>4</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="7">
-        <v>1</v>
-      </c>
-      <c r="C21" s="7">
+      <c r="B21" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C21" s="6">
         <v>0.2</v>
       </c>
       <c r="D21" s="1">
@@ -1245,27 +1376,33 @@
       <c r="E21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>7.5339999999999998</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="2">
         <v>11.44</v>
       </c>
-      <c r="H21" s="8">
-        <v>6</v>
-      </c>
-      <c r="I21" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="H21" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J21" s="7">
+        <v>4</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="7">
-        <v>1</v>
-      </c>
-      <c r="C22" s="7">
+      <c r="B22" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C22" s="6">
         <v>0.2</v>
       </c>
       <c r="D22" s="1">
@@ -1274,27 +1411,33 @@
       <c r="E22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <v>12.08</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="2">
         <v>12.5</v>
       </c>
-      <c r="H22" s="8">
-        <v>6</v>
-      </c>
-      <c r="I22" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="H22" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J22" s="7">
+        <v>4</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="7">
-        <v>1</v>
-      </c>
-      <c r="C23" s="7">
+      <c r="B23" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C23" s="6">
         <v>0.2</v>
       </c>
       <c r="D23" s="1">
@@ -1303,27 +1446,33 @@
       <c r="E23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="2">
         <v>15.540000000000001</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="2">
         <v>10.152000000000001</v>
       </c>
-      <c r="H23" s="8">
-        <v>6</v>
-      </c>
-      <c r="I23" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="H23" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J23" s="7">
+        <v>4</v>
+      </c>
+      <c r="K23" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="7">
-        <v>1</v>
-      </c>
-      <c r="C24" s="7">
+      <c r="B24" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C24" s="6">
         <v>0.2</v>
       </c>
       <c r="D24" s="1">
@@ -1332,27 +1481,33 @@
       <c r="E24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
         <v>9.4</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="2">
         <v>8.32</v>
       </c>
-      <c r="H24" s="8">
-        <v>6</v>
-      </c>
-      <c r="I24" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="H24" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J24" s="7">
+        <v>4</v>
+      </c>
+      <c r="K24" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="7">
-        <v>1</v>
-      </c>
-      <c r="C25" s="7">
+      <c r="B25" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C25" s="6">
         <v>0.2</v>
       </c>
       <c r="D25" s="1">
@@ -1361,27 +1516,33 @@
       <c r="E25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
         <v>12.08</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="2">
         <v>8.32</v>
       </c>
-      <c r="H25" s="8">
-        <v>6</v>
-      </c>
-      <c r="I25" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="H25" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J25" s="7">
+        <v>4</v>
+      </c>
+      <c r="K25" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="7">
-        <v>1</v>
-      </c>
-      <c r="C26" s="7">
+      <c r="B26" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C26" s="6">
         <v>0.2</v>
       </c>
       <c r="D26" s="1">
@@ -1390,27 +1551,33 @@
       <c r="E26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="2">
         <v>0</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="2">
         <v>6.6400000000000006</v>
       </c>
-      <c r="H26" s="8">
-        <v>6</v>
-      </c>
-      <c r="I26" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="H26" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J26" s="7">
+        <v>4</v>
+      </c>
+      <c r="K26" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="7">
-        <v>1</v>
-      </c>
-      <c r="C27" s="7">
+      <c r="B27" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C27" s="6">
         <v>0.2</v>
       </c>
       <c r="D27" s="1">
@@ -1419,27 +1586,33 @@
       <c r="E27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="2">
         <v>2.3050000000000002</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="2">
         <v>6.1150000000000002</v>
       </c>
-      <c r="H27" s="8">
-        <v>6</v>
-      </c>
-      <c r="I27" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="H27" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J27" s="7">
+        <v>4</v>
+      </c>
+      <c r="K27" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="7">
-        <v>1</v>
-      </c>
-      <c r="C28" s="7">
+      <c r="B28" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C28" s="6">
         <v>0.2</v>
       </c>
       <c r="D28" s="1">
@@ -1448,27 +1621,33 @@
       <c r="E28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="2">
         <v>5.2050000000000001</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="2">
         <v>7.1150000000000002</v>
       </c>
-      <c r="H28" s="8">
-        <v>6</v>
-      </c>
-      <c r="I28" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="H28" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J28" s="7">
+        <v>4</v>
+      </c>
+      <c r="K28" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="7">
-        <v>1</v>
-      </c>
-      <c r="C29" s="7">
+      <c r="B29" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C29" s="6">
         <v>0.2</v>
       </c>
       <c r="D29" s="1">
@@ -1477,27 +1656,33 @@
       <c r="E29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="2">
         <v>13.875</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="2">
         <v>6.1400000000000006</v>
       </c>
-      <c r="H29" s="8">
-        <v>6</v>
-      </c>
-      <c r="I29" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="H29" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J29" s="7">
+        <v>4</v>
+      </c>
+      <c r="K29" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="7">
-        <v>1</v>
-      </c>
-      <c r="C30" s="7">
+      <c r="B30" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C30" s="6">
         <v>0.2</v>
       </c>
       <c r="D30" s="1">
@@ -1506,27 +1691,33 @@
       <c r="E30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="2">
         <v>19.625</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="2">
         <v>7.1150000000000002</v>
       </c>
-      <c r="H30" s="8">
-        <v>6</v>
-      </c>
-      <c r="I30" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="H30" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J30" s="7">
+        <v>4</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="7">
-        <v>1</v>
-      </c>
-      <c r="C31" s="7">
+      <c r="B31" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C31" s="6">
         <v>0.2</v>
       </c>
       <c r="D31" s="1">
@@ -1535,27 +1726,33 @@
       <c r="E31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="2">
         <v>27.75</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="2">
         <v>6.1150000000000002</v>
       </c>
-      <c r="H31" s="8">
-        <v>6</v>
-      </c>
-      <c r="I31" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="H31" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J31" s="7">
+        <v>4</v>
+      </c>
+      <c r="K31" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="7">
-        <v>1</v>
-      </c>
-      <c r="C32" s="7">
+      <c r="B32" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C32" s="6">
         <v>0.2</v>
       </c>
       <c r="D32" s="1">
@@ -1564,27 +1761,33 @@
       <c r="E32" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="2">
         <v>27.75</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="2">
         <v>6.6400000000000006</v>
       </c>
-      <c r="H32" s="8">
-        <v>6</v>
-      </c>
-      <c r="I32" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="H32" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J32" s="7">
+        <v>4</v>
+      </c>
+      <c r="K32" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="7">
-        <v>1</v>
-      </c>
-      <c r="C33" s="7">
+      <c r="B33" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C33" s="6">
         <v>0.2</v>
       </c>
       <c r="D33" s="1">
@@ -1593,27 +1796,33 @@
       <c r="E33" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="2">
         <v>8.125</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="2">
         <v>5.1150000000000002</v>
       </c>
-      <c r="H33" s="8">
-        <v>6</v>
-      </c>
-      <c r="I33" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="H33" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J33" s="7">
+        <v>4</v>
+      </c>
+      <c r="K33" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="7">
-        <v>1</v>
-      </c>
-      <c r="C34" s="7">
+      <c r="B34" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C34" s="6">
         <v>0.2</v>
       </c>
       <c r="D34" s="1">
@@ -1622,27 +1831,33 @@
       <c r="E34" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="2">
         <v>19.625</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="2">
         <v>5.1150000000000002</v>
       </c>
-      <c r="H34" s="8">
-        <v>6</v>
-      </c>
-      <c r="I34" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="H34" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J34" s="7">
+        <v>4</v>
+      </c>
+      <c r="K34" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="7">
-        <v>1</v>
-      </c>
-      <c r="C35" s="7">
+      <c r="B35" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C35" s="6">
         <v>0.2</v>
       </c>
       <c r="D35" s="1">
@@ -1651,27 +1866,33 @@
       <c r="E35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="2">
         <v>0</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="2">
         <v>0</v>
       </c>
-      <c r="H35" s="8">
-        <v>6</v>
-      </c>
-      <c r="I35" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="H35" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J35" s="7">
+        <v>4</v>
+      </c>
+      <c r="K35" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="7">
-        <v>1</v>
-      </c>
-      <c r="C36" s="7">
+      <c r="B36" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C36" s="6">
         <v>0.2</v>
       </c>
       <c r="D36" s="1">
@@ -1680,27 +1901,33 @@
       <c r="E36" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="2">
         <v>27.75</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="2">
         <v>0</v>
       </c>
-      <c r="H36" s="8">
-        <v>6</v>
-      </c>
-      <c r="I36" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="H36" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J36" s="7">
+        <v>4</v>
+      </c>
+      <c r="K36" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="7">
-        <v>1</v>
-      </c>
-      <c r="C37" s="7">
+      <c r="B37" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C37" s="6">
         <v>0.2</v>
       </c>
       <c r="D37" s="1">
@@ -1709,27 +1936,33 @@
       <c r="E37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="2">
         <v>2.9</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="2">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="H37" s="8">
-        <v>6</v>
-      </c>
-      <c r="I37" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="H37" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J37" s="7">
+        <v>4</v>
+      </c>
+      <c r="K37" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="7">
-        <v>1</v>
-      </c>
-      <c r="C38" s="7">
+      <c r="B38" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C38" s="6">
         <v>0.2</v>
       </c>
       <c r="D38" s="1">
@@ -1738,27 +1971,33 @@
       <c r="E38" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="2">
         <v>7.9850000000000003</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="2">
         <v>-0.4</v>
       </c>
-      <c r="H38" s="8">
-        <v>6</v>
-      </c>
-      <c r="I38" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="H38" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J38" s="7">
+        <v>4</v>
+      </c>
+      <c r="K38" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="7">
-        <v>1</v>
-      </c>
-      <c r="C39" s="7">
+      <c r="B39" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C39" s="6">
         <v>0.2</v>
       </c>
       <c r="D39" s="1">
@@ -1767,27 +2006,33 @@
       <c r="E39" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="2">
         <v>13.875</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="2">
         <v>-0.81</v>
       </c>
-      <c r="H39" s="8">
-        <v>6</v>
-      </c>
-      <c r="I39" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+      <c r="H39" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J39" s="7">
+        <v>4</v>
+      </c>
+      <c r="K39" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="7">
-        <v>1</v>
-      </c>
-      <c r="C40" s="7">
+      <c r="B40" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C40" s="6">
         <v>0.2</v>
       </c>
       <c r="D40" s="1">
@@ -1796,27 +2041,33 @@
       <c r="E40" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="2">
         <v>19.765000000000001</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="2">
         <v>-0.4</v>
       </c>
-      <c r="H40" s="8">
-        <v>6</v>
-      </c>
-      <c r="I40" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="H40" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J40" s="7">
+        <v>4</v>
+      </c>
+      <c r="K40" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="7">
-        <v>1</v>
-      </c>
-      <c r="C41" s="7">
+      <c r="B41" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C41" s="6">
         <v>0.2</v>
       </c>
       <c r="D41" s="1">
@@ -1825,27 +2076,33 @@
       <c r="E41" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="2">
         <v>25.445</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="2">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="H41" s="8">
-        <v>6</v>
-      </c>
-      <c r="I41" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="H41" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J41" s="7">
+        <v>4</v>
+      </c>
+      <c r="K41" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="7">
-        <v>1</v>
-      </c>
-      <c r="C42" s="7">
+      <c r="B42" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C42" s="6">
         <v>0.2</v>
       </c>
       <c r="D42" s="1">
@@ -1854,26 +2111,34 @@
       <c r="E42" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="12">
         <v>0.125</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="2">
         <v>12.525</v>
       </c>
-      <c r="H42" s="8">
-        <v>6</v>
-      </c>
-      <c r="I42" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H42" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J42" s="7">
+        <v>4</v>
+      </c>
+      <c r="K42" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
